--- a/biology/Zoologie/Darrel_Richmond_Frost/Darrel_Richmond_Frost.xlsx
+++ b/biology/Zoologie/Darrel_Richmond_Frost/Darrel_Richmond_Frost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Darrel Richmond Frost est un herpétologiste américain né en 1951.
 Il travaille dans la Division of Vertebrate Zoology (Herpetology) de l'American Museum of Natural History.
@@ -512,7 +524,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Frostius Cannatella, 1986
 Dendropsophus frosti 	(Motta, Catroviejo-Fisher, Venegas, Orrico &amp; Padial, 2012)</t>
@@ -543,7 +557,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Abronia anzuetoi Campbell &amp; Frost, 1993
@@ -609,7 +625,9 @@
           <t>Activité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Frost, Darrel R. 2009 : Amphibian Species of the World: an Online Reference. Version 5.3 (12 February, 2009). Electronic Database accessible at http://research.amnh.org/herpetology/amphibia/ American Museum of Natural History, New York, USA.</t>
         </is>
